--- a/reports/pde_speed_report_t.xlsx
+++ b/reports/pde_speed_report_t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sa\capstone_option_pricing\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B15E7798-6240-45EE-A71C-6C1E6F469743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{65DF40AF-0C4E-433C-94B8-0D32278AF058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="6435" yWindow="2895" windowWidth="31050" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="pde_speed_report_t" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>pv</t>
   </si>
   <si>
     <t>time</t>
   </si>
-  <si>
-    <t>grid size by T</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +163,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -519,9 +509,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -615,15 +604,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>pv</a:t>
+              <a:t>pv (# time points)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>(grid size by T)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -690,10 +672,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>pde_speed_report_t!$B$1:$CW$1</c:f>
+              <c:f>pde_speed_report_t!$B$1:$KO$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -993,16 +975,616 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1790</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1820</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2240</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2260</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2270</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2360</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2380</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2390</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2410</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2420</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2430</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2440</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2460</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2470</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2480</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2490</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2530</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2540</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2570</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2580</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2590</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2630</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2690</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2770</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2780</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2790</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2810</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2820</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2840</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2910</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2960</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2970</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pde_speed_report_t!$B$2:$CW$2</c:f>
+              <c:f>pde_speed_report_t!$B$2:$KO$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>114.991002976649</c:v>
                 </c:pt>
@@ -1302,6 +1884,606 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>102.973418084454</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101.880935209708</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102.630652503834</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102.672796160128</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>102.954947906277</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>102.615932669014</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>102.621591084334</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>103.08728969470999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>103.150222819397</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>102.872783881045</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>102.84817078075</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>102.43225342642</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>102.778079094916</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>102.64141781307499</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>102.660462618963</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>103.821537213197</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>102.79411612289999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>102.791874173529</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>102.95315612023801</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>103.022352392621</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>102.517391840282</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>102.908571217949</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>102.865116794287</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>102.752591594818</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>102.61133864195401</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>103.228892153207</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>102.746037351385</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>102.61670050778</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>102.681418950658</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>102.739356851252</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>102.793799511407</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>102.95539240984</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>102.774617095165</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>102.96296236539899</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>102.904899388473</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>102.905149274411</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>102.017009632971</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>102.575080777545</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>102.634470994523</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>102.720706213068</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>102.845227516688</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>101.859245712609</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>102.766399994401</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>102.68596395461699</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>102.79961521048899</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>102.830891342078</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>102.683897837421</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>102.903196205862</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>102.79328454408</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>102.725755818537</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>102.75288606309999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>102.777427261238</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>102.97675106633601</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>102.805023308777</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>102.582392595806</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>102.87139251249999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>102.929859882652</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>102.32921133205301</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>102.51798887999099</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>102.722125706442</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>102.844687225641</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>102.811193050291</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>102.949571470701</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>102.83248070536</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>102.913291417639</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>102.62581331969</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>102.804161540208</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>104.900626950469</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>102.596614165994</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>102.59953763508101</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>102.706333995469</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>102.817051741255</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>102.729347389807</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>102.805832352544</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>102.419277067095</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>102.848993188202</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>102.564681248173</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>102.608224739251</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>102.875338590704</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>103.035969850954</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>102.755829594389</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>102.53101301122599</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>102.700206854393</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>102.789518234748</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>102.798198918182</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>102.81831134939</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>102.765428097474</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>102.637908799901</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>103.10209513860799</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>102.61448784084899</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>102.739919424547</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>102.783362913456</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>102.539522399557</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>102.570863520042</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>102.849365875697</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>102.72758824849301</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>102.830107895878</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>102.702545909224</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>102.641482160076</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>102.83282026070501</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>102.761326181062</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>102.7568409039</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>102.64335812231199</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>102.70483487015299</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>102.91545722999901</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>102.742549037058</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>102.704588851087</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>102.772257205987</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>102.621906998349</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>103.213277186938</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>102.76154172557899</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>102.72858255060601</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>102.805948400605</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>102.86861235258699</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>103.426361717278</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>102.686379580962</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>102.821370523832</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>102.66387677663</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>102.733508713055</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>102.820995850157</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>102.68309739890201</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>102.523311817267</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>102.601813434319</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>102.773580787518</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>102.651165716937</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>102.676449545287</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>102.747002018703</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>102.608037763764</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>102.759718016607</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>102.608481037161</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>103.108362233195</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>102.781810829177</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>102.81192909151</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>102.762430544881</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>102.731680026248</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>102.946334541697</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>102.74585861659</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>102.81488507706599</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>102.825101044973</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>102.647205212812</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>102.19002975458601</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>102.882138452436</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>102.74839130059399</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>102.75221020536701</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>102.728659057836</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>102.767564420841</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>102.706709338533</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>102.95081665767199</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>102.830994296711</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>102.83190932979301</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>102.81417348492501</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>102.70828542964701</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>102.79273336719</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>102.78512406397699</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>102.591138171141</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>102.72398123270401</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>102.767043043909</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>102.73596084043299</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>102.796905879104</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>102.655160268861</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>102.7869224928</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>103.24397866736</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>102.85269174217601</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>102.80165552298701</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>102.81767775635799</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>102.744984743475</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>102.746946193642</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>102.856085964358</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>102.79700455188799</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>102.85841853585499</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>102.741383406605</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>102.892274697727</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>102.673440421821</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>102.72351560049501</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>102.767774300098</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>102.788757098617</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>102.800076020779</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>102.851766212576</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>102.885849928102</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>102.80504735441799</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>102.730928575932</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>102.761194156888</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>102.1378259322</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>102.630259155825</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>102.70402998736</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>102.76518153273101</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>102.69319766114999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>103.013444551109</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>102.77890131676</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>102.702630606686</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>102.713120537286</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>102.637364464616</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>102.75563646692299</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>102.677776886548</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>102.81987200073399</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>102.672862053401</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>102.745432794371</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>102.734446936764</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>102.729627792274</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>102.734711433768</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>102.742279076606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,7 +2491,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B6F-46C9-BDA5-D7A8FA1D7B1D}"/>
+              <c16:uniqueId val="{00000000-E5D4-4D12-8342-B7B9548A6995}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1322,11 +2504,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="468589784"/>
-        <c:axId val="468591752"/>
+        <c:axId val="263459792"/>
+        <c:axId val="263460776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="468589784"/>
+        <c:axId val="263459792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +2551,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468591752"/>
+        <c:crossAx val="263460776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1377,9 +2559,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="468591752"/>
+        <c:axId val="263460776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="95"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1428,7 +2611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468589784"/>
+        <c:crossAx val="263459792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1519,7 +2702,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>time(grid size by T)</a:t>
+              <a:t>time, sec (# time points)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1587,10 +2770,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>pde_speed_report_t!$B$1:$CW$1</c:f>
+              <c:f>pde_speed_report_t!$B$1:$KO$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1890,315 +3073,1515 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1790</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1820</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2110</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2230</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2240</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2260</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2270</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2360</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2380</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2390</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2410</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2420</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2430</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2440</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2460</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2470</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2480</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2490</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2530</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2540</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2570</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2580</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2590</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2630</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2690</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2770</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2780</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2790</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2810</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2820</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2840</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2860</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2910</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2960</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2970</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pde_speed_report_t!$B$3:$CW$3</c:f>
+              <c:f>pde_speed_report_t!$B$3:$KO$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="300"/>
                 <c:pt idx="0">
-                  <c:v>1.56216621398925E-2</c:v>
+                  <c:v>1.5620946884155201E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2863130569458001E-2</c:v>
+                  <c:v>2.36637592315673E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7205457687377902E-2</c:v>
+                  <c:v>4.68649864196777E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8106403350829995E-2</c:v>
+                  <c:v>6.2484264373779297E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3480596542358398E-2</c:v>
+                  <c:v>9.3727588653564398E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9395990371704102E-2</c:v>
+                  <c:v>9.3727827072143499E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.100116729736328</c:v>
+                  <c:v>0.109349250793457</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12496829032897901</c:v>
+                  <c:v>0.124970436096191</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.140591621398925</c:v>
+                  <c:v>0.14165544509887601</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.14059209823608301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.17183494567870999</c:v>
+                  <c:v>0.15621280670165999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15621232986450101</c:v>
+                  <c:v>0.17183446884155201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15830564498901301</c:v>
+                  <c:v>0.170281171798706</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18745541572570801</c:v>
+                  <c:v>0.171834707260131</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18816137313842701</c:v>
+                  <c:v>0.19548845291137601</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.203076362609863</c:v>
+                  <c:v>0.187455654144287</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21869850158691401</c:v>
+                  <c:v>0.2030770778656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20412755012512199</c:v>
+                  <c:v>0.21937370300292899</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.21869826316833399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23535871505737299</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.23431992530822701</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.234319448471069</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.25080013275146401</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25101017951965299</c:v>
+                  <c:v>0.26645517349243097</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26556229591369601</c:v>
+                  <c:v>0.265562534332275</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.269234418869018</c:v>
+                  <c:v>0.26661086082458402</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.29680466651916498</c:v>
+                  <c:v>0.29898142814636203</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.30825638771057101</c:v>
+                  <c:v>0.30069160461425698</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0.30804467201232899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.32936739921569802</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.32804751396179199</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.32073807716369601</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.34573841094970698</c:v>
-                </c:pt>
                 <c:pt idx="29">
+                  <c:v>0.353690385818481</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.34366869926452598</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.35929059982299799</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.37653398513793901</c:v>
+                  <c:v>0.374911308288574</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.39319586753845198</c:v>
+                  <c:v>0.37597894668579102</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.392833471298217</c:v>
+                  <c:v>0.39111375808715798</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.41558623313903797</c:v>
+                  <c:v>0.40615439414978</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.42534804344177202</c:v>
+                  <c:v>0.411976099014282</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.43842959403991699</c:v>
+                  <c:v>0.43739652633666898</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.46169734001159601</c:v>
+                  <c:v>0.43843531608581499</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.44414401054382302</c:v>
+                  <c:v>0.43903660774230902</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.47894167900085399</c:v>
+                  <c:v>0.45907425880432101</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.471359252929687</c:v>
+                  <c:v>0.47567033767700101</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.48426055908203097</c:v>
+                  <c:v>0.485304355621337</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.50161767005920399</c:v>
+                  <c:v>0.49988126754760698</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.51550340652465798</c:v>
+                  <c:v>0.50093054771423295</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.51654624938964799</c:v>
+                  <c:v>0.51608920097350997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.53112435340881303</c:v>
+                  <c:v>0.520039081573486</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.55002880096435502</c:v>
+                  <c:v>0.53112459182739202</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.55043649673461903</c:v>
+                  <c:v>0.55077838897705</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.571119785308837</c:v>
+                  <c:v>0.56707143783569303</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.57905101776123002</c:v>
+                  <c:v>0.55930924415588301</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.59361028671264604</c:v>
+                  <c:v>0.58196830749511697</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.595220327377319</c:v>
+                  <c:v>0.59469676017761197</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.62485194206237704</c:v>
+                  <c:v>0.610271215438842</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.62691950798034601</c:v>
+                  <c:v>0.60980868339538497</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.636793613433837</c:v>
+                  <c:v>0.63215994834899902</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.65984678268432595</c:v>
+                  <c:v>0.64047360420226995</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.65664219856262196</c:v>
+                  <c:v>0.64554047584533603</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.67278480529785101</c:v>
+                  <c:v>0.65315413475036599</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.68526172637939398</c:v>
+                  <c:v>0.67692494392394997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.68940901756286599</c:v>
+                  <c:v>0.68838906288146895</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.70402503013610795</c:v>
+                  <c:v>0.69930434226989702</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.73663187026977495</c:v>
+                  <c:v>0.70399355888366699</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.72329950332641602</c:v>
+                  <c:v>0.72804045677185003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.754871606826782</c:v>
+                  <c:v>0.72282028198242099</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.77381086349487305</c:v>
+                  <c:v>0.74887967109680098</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.76620244979858398</c:v>
+                  <c:v>0.74879980087280196</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.782795190811157</c:v>
+                  <c:v>0.76544404029846103</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.79840183258056596</c:v>
+                  <c:v>0.78269672393798795</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.79870009422302202</c:v>
+                  <c:v>0.78213524818420399</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.81426906585693304</c:v>
+                  <c:v>0.80607414245605402</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.827930688858032</c:v>
+                  <c:v>0.80989289283752397</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.82901787757873502</c:v>
+                  <c:v>0.81253433227538996</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.84460186958312899</c:v>
+                  <c:v>0.82896924018859797</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.86079788208007801</c:v>
+                  <c:v>0.84464526176452603</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.86244988441467196</c:v>
+                  <c:v>0.84517860412597601</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.88360023498535101</c:v>
+                  <c:v>0.86323165893554599</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.90726089477538996</c:v>
+                  <c:v>0.87727284431457497</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.89212632179260198</c:v>
+                  <c:v>0.88031268119812001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.922321557998657</c:v>
+                  <c:v>0.90708398818969704</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.92374014854431097</c:v>
+                  <c:v>0.90766572952270497</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.94238376617431596</c:v>
+                  <c:v>0.92626905441284102</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.93562960624694802</c:v>
+                  <c:v>0.92243766784667902</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.96094441413879395</c:v>
+                  <c:v>0.93367171287536599</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.97159123420715299</c:v>
+                  <c:v>0.95393967628479004</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.98520112037658603</c:v>
+                  <c:v>1.00184178352355</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.99035239219665505</c:v>
+                  <c:v>0.98518061637878396</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.0155320167541499</c:v>
+                  <c:v>0.98346376419067305</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.0174634456634499</c:v>
+                  <c:v>0.99656248092651301</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.03262686729431</c:v>
+                  <c:v>1.01942634582519</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.0476820468902499</c:v>
+                  <c:v>1.0171091556548999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.03928351402282</c:v>
+                  <c:v>1.0320587158203101</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0508437156677199</c:v>
+                  <c:v>1.0472507476806601</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.0806262493133501</c:v>
+                  <c:v>1.07072281837463</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.09453344345092</c:v>
+                  <c:v>1.06393671035766</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.09555912017822</c:v>
+                  <c:v>1.08225417137146</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.11119508743286</c:v>
+                  <c:v>1.0795695781707699</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.11985731124877</c:v>
+                  <c:v>1.1182172298431301</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.1420924663543699</c:v>
+                  <c:v>1.0992088317871</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.15990710258483</c:v>
+                  <c:v>1.1101593971252399</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.14611196517944</c:v>
+                  <c:v>1.1625552177429199</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.14542531967163</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.15407371520996</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.17556548118591</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.1900930404662999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.18141984939575</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.22039818763732</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.2361352443695</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.23577308654785</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.2361485958099301</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.2614836692810001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.26897048950195</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.2663600444793699</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.2940359115600499</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.3147490024566599</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.31322765350341</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.32480192184448</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.3265178203582699</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.3471257686614899</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.3574812412261901</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.3615362644195499</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.5466499328613199</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.38857316970825</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.3948061466217001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.40799307823181</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.4317920207977199</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.44063544273376</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.43821692466735</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.44219326972961</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.4703130722045801</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.48975849151611</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.4905858039855899</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.5203011035919101</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.5202932357787999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.53297090530395</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.54012775421142</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.5685908794403001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.5637581348419101</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.5770568847656199</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.5989017486572199</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.6090726852416899</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.6086962223052901</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.73236536979675</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.78601145744323</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.68317151069641</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.6960425376892001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.7434282302856401</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.7403440475463801</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.7325363159179601</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.693208694458</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.7090871334075901</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.71904969215393</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.7303709983825599</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.7371416091918901</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.75031757354736</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.78282141685485</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.7879621982574401</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.7898652553558301</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.8028690814971899</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.86002397537231</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.8253188133239699</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.8739869594573899</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.86587214469909</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.85468029975891</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.8797698020935001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.8786818981170601</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.90727019309997</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.89223980903625</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.9243345260620099</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.9262232780456501</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.93387651443481</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.9548144340515099</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.97122573852539</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.97387242317199</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.9712436199188199</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.0043716430664</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.0052635669708199</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.0180485248565598</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.02950119972229</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.0398564338684002</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.0615172386169398</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.0538196563720699</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.0841205120086599</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.0803694725036599</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.09596824645996</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.0990724563598602</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.11938047409057</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.1236708164214999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.1428205966949401</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.1380586624145499</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.1578240394592201</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.1901142597198402</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.1949317455291699</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.1953089237213099</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.19131255149841</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.4939212799072199</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.3164439201354901</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.2480328083038299</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.23407626152038</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.2677471637725799</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.2946889400482098</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.3062944412231401</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.3262879848480198</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.2995252609252899</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.3315913677215501</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.32595443725585</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2.3315615653991699</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2.34922051429748</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.3794064521789502</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.4035272598266602</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2.3828237056732098</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2.3878209590911799</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.4194278717040998</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.4096112251281698</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.4469251632690399</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.4573986530303902</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.4605965614318799</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2.4794504642486501</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2.482266664505</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.4866840839385902</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.4978141784667902</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.5031113624572701</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.5315284729003902</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.5279238224029501</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.5350642204284601</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.5737950801849299</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.56704425811767</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.5845808982849099</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.6000874042510902</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.60691833496093</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.61703276634216</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.6252481937408398</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.6476485729217498</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.6510548591613698</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2.67796325683593</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.6712572574615399</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2.69400882720947</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.6985177993774401</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.70068979263305</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.7095270156860298</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.7478258609771702</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2.7336721420288002</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2.7647969722747798</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2.7641680240631099</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.76247239112854</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.7847056388854901</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.8112366199493399</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.8074917793273899</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.8424208164214999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.8408172130584699</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.8436863422393799</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.8501162528991699</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.8612575531005802</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2.8962337970733598</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2.8969655036926198</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.8953664302825901</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.9175012111663801</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2.9389631748199401</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.9377634525299001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.9282746315002401</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.9511792659759499</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.9480204582214302</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3.0070497989654501</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3.0138204097747798</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2.9894838333129798</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3.02909803390502</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3.0248031616210902</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3.03265929222106</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3.08452248573303</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>3.0570983886718701</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3.0458922386169398</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3.0759150981903001</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>3.09552645683288</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3.1038286685943599</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3.11956763267517</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3.12256479263305</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3.1461219787597599</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3.15376877784729</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3.1715521812438898</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3.1826424598693799</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3.1850898265838601</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3.1994297504425</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3.2132313251495299</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3.2460036277770898</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3.2332305908203098</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3.2343623638153001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3.26454281806945</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3.2591750621795601</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3.3148512840270898</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.2799205780029199</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.3021540641784601</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3.3290128707885698</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3.34052157402038</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3.3996813297271702</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3.3759570121765101</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3.3708300590515101</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3.3944413661956698</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3.4244530200958199</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3.3954918384552002</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3.3783805370330802</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3.4114506244659402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,7 +4589,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF7D-4F4A-83C9-A96CBB76B738}"/>
+              <c16:uniqueId val="{00000000-B547-44E6-BAB6-133D227F21A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2219,11 +4602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="543062144"/>
-        <c:axId val="543067720"/>
+        <c:axId val="517665576"/>
+        <c:axId val="517671480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="543062144"/>
+        <c:axId val="517665576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,7 +4649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543067720"/>
+        <c:crossAx val="517671480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2274,7 +4657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543067720"/>
+        <c:axId val="517671480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,7 +4708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543062144"/>
+        <c:crossAx val="517665576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3498,22 +5881,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E61A9B5A-AD66-42CD-A6D5-1092F43A5979}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF78BDB-6A15-4125-8536-9AB3B44FC586}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3534,22 +5917,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>328611</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4171FDBB-A1F2-4A4A-9240-69F3EBAEB5AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B46788D-2C28-4410-98F1-371CC671A7E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3867,18 +6250,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW3"/>
+  <dimension ref="A1:KO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="JO1" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:101" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:301" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>10</v>
       </c>
@@ -4179,8 +6559,608 @@
       <c r="CW1">
         <v>1000</v>
       </c>
+      <c r="CX1">
+        <v>1010</v>
+      </c>
+      <c r="CY1">
+        <v>1020</v>
+      </c>
+      <c r="CZ1">
+        <v>1030</v>
+      </c>
+      <c r="DA1">
+        <v>1040</v>
+      </c>
+      <c r="DB1">
+        <v>1050</v>
+      </c>
+      <c r="DC1">
+        <v>1060</v>
+      </c>
+      <c r="DD1">
+        <v>1070</v>
+      </c>
+      <c r="DE1">
+        <v>1080</v>
+      </c>
+      <c r="DF1">
+        <v>1090</v>
+      </c>
+      <c r="DG1">
+        <v>1100</v>
+      </c>
+      <c r="DH1">
+        <v>1110</v>
+      </c>
+      <c r="DI1">
+        <v>1120</v>
+      </c>
+      <c r="DJ1">
+        <v>1130</v>
+      </c>
+      <c r="DK1">
+        <v>1140</v>
+      </c>
+      <c r="DL1">
+        <v>1150</v>
+      </c>
+      <c r="DM1">
+        <v>1160</v>
+      </c>
+      <c r="DN1">
+        <v>1170</v>
+      </c>
+      <c r="DO1">
+        <v>1180</v>
+      </c>
+      <c r="DP1">
+        <v>1190</v>
+      </c>
+      <c r="DQ1">
+        <v>1200</v>
+      </c>
+      <c r="DR1">
+        <v>1210</v>
+      </c>
+      <c r="DS1">
+        <v>1220</v>
+      </c>
+      <c r="DT1">
+        <v>1230</v>
+      </c>
+      <c r="DU1">
+        <v>1240</v>
+      </c>
+      <c r="DV1">
+        <v>1250</v>
+      </c>
+      <c r="DW1">
+        <v>1260</v>
+      </c>
+      <c r="DX1">
+        <v>1270</v>
+      </c>
+      <c r="DY1">
+        <v>1280</v>
+      </c>
+      <c r="DZ1">
+        <v>1290</v>
+      </c>
+      <c r="EA1">
+        <v>1300</v>
+      </c>
+      <c r="EB1">
+        <v>1310</v>
+      </c>
+      <c r="EC1">
+        <v>1320</v>
+      </c>
+      <c r="ED1">
+        <v>1330</v>
+      </c>
+      <c r="EE1">
+        <v>1340</v>
+      </c>
+      <c r="EF1">
+        <v>1350</v>
+      </c>
+      <c r="EG1">
+        <v>1360</v>
+      </c>
+      <c r="EH1">
+        <v>1370</v>
+      </c>
+      <c r="EI1">
+        <v>1380</v>
+      </c>
+      <c r="EJ1">
+        <v>1390</v>
+      </c>
+      <c r="EK1">
+        <v>1400</v>
+      </c>
+      <c r="EL1">
+        <v>1410</v>
+      </c>
+      <c r="EM1">
+        <v>1420</v>
+      </c>
+      <c r="EN1">
+        <v>1430</v>
+      </c>
+      <c r="EO1">
+        <v>1440</v>
+      </c>
+      <c r="EP1">
+        <v>1450</v>
+      </c>
+      <c r="EQ1">
+        <v>1460</v>
+      </c>
+      <c r="ER1">
+        <v>1470</v>
+      </c>
+      <c r="ES1">
+        <v>1480</v>
+      </c>
+      <c r="ET1">
+        <v>1490</v>
+      </c>
+      <c r="EU1">
+        <v>1500</v>
+      </c>
+      <c r="EV1">
+        <v>1510</v>
+      </c>
+      <c r="EW1">
+        <v>1520</v>
+      </c>
+      <c r="EX1">
+        <v>1530</v>
+      </c>
+      <c r="EY1">
+        <v>1540</v>
+      </c>
+      <c r="EZ1">
+        <v>1550</v>
+      </c>
+      <c r="FA1">
+        <v>1560</v>
+      </c>
+      <c r="FB1">
+        <v>1570</v>
+      </c>
+      <c r="FC1">
+        <v>1580</v>
+      </c>
+      <c r="FD1">
+        <v>1590</v>
+      </c>
+      <c r="FE1">
+        <v>1600</v>
+      </c>
+      <c r="FF1">
+        <v>1610</v>
+      </c>
+      <c r="FG1">
+        <v>1620</v>
+      </c>
+      <c r="FH1">
+        <v>1630</v>
+      </c>
+      <c r="FI1">
+        <v>1640</v>
+      </c>
+      <c r="FJ1">
+        <v>1650</v>
+      </c>
+      <c r="FK1">
+        <v>1660</v>
+      </c>
+      <c r="FL1">
+        <v>1670</v>
+      </c>
+      <c r="FM1">
+        <v>1680</v>
+      </c>
+      <c r="FN1">
+        <v>1690</v>
+      </c>
+      <c r="FO1">
+        <v>1700</v>
+      </c>
+      <c r="FP1">
+        <v>1710</v>
+      </c>
+      <c r="FQ1">
+        <v>1720</v>
+      </c>
+      <c r="FR1">
+        <v>1730</v>
+      </c>
+      <c r="FS1">
+        <v>1740</v>
+      </c>
+      <c r="FT1">
+        <v>1750</v>
+      </c>
+      <c r="FU1">
+        <v>1760</v>
+      </c>
+      <c r="FV1">
+        <v>1770</v>
+      </c>
+      <c r="FW1">
+        <v>1780</v>
+      </c>
+      <c r="FX1">
+        <v>1790</v>
+      </c>
+      <c r="FY1">
+        <v>1800</v>
+      </c>
+      <c r="FZ1">
+        <v>1810</v>
+      </c>
+      <c r="GA1">
+        <v>1820</v>
+      </c>
+      <c r="GB1">
+        <v>1830</v>
+      </c>
+      <c r="GC1">
+        <v>1840</v>
+      </c>
+      <c r="GD1">
+        <v>1850</v>
+      </c>
+      <c r="GE1">
+        <v>1860</v>
+      </c>
+      <c r="GF1">
+        <v>1870</v>
+      </c>
+      <c r="GG1">
+        <v>1880</v>
+      </c>
+      <c r="GH1">
+        <v>1890</v>
+      </c>
+      <c r="GI1">
+        <v>1900</v>
+      </c>
+      <c r="GJ1">
+        <v>1910</v>
+      </c>
+      <c r="GK1">
+        <v>1920</v>
+      </c>
+      <c r="GL1">
+        <v>1930</v>
+      </c>
+      <c r="GM1">
+        <v>1940</v>
+      </c>
+      <c r="GN1">
+        <v>1950</v>
+      </c>
+      <c r="GO1">
+        <v>1960</v>
+      </c>
+      <c r="GP1">
+        <v>1970</v>
+      </c>
+      <c r="GQ1">
+        <v>1980</v>
+      </c>
+      <c r="GR1">
+        <v>1990</v>
+      </c>
+      <c r="GS1">
+        <v>2000</v>
+      </c>
+      <c r="GT1">
+        <v>2010</v>
+      </c>
+      <c r="GU1">
+        <v>2020</v>
+      </c>
+      <c r="GV1">
+        <v>2030</v>
+      </c>
+      <c r="GW1">
+        <v>2040</v>
+      </c>
+      <c r="GX1">
+        <v>2050</v>
+      </c>
+      <c r="GY1">
+        <v>2060</v>
+      </c>
+      <c r="GZ1">
+        <v>2070</v>
+      </c>
+      <c r="HA1">
+        <v>2080</v>
+      </c>
+      <c r="HB1">
+        <v>2090</v>
+      </c>
+      <c r="HC1">
+        <v>2100</v>
+      </c>
+      <c r="HD1">
+        <v>2110</v>
+      </c>
+      <c r="HE1">
+        <v>2120</v>
+      </c>
+      <c r="HF1">
+        <v>2130</v>
+      </c>
+      <c r="HG1">
+        <v>2140</v>
+      </c>
+      <c r="HH1">
+        <v>2150</v>
+      </c>
+      <c r="HI1">
+        <v>2160</v>
+      </c>
+      <c r="HJ1">
+        <v>2170</v>
+      </c>
+      <c r="HK1">
+        <v>2180</v>
+      </c>
+      <c r="HL1">
+        <v>2190</v>
+      </c>
+      <c r="HM1">
+        <v>2200</v>
+      </c>
+      <c r="HN1">
+        <v>2210</v>
+      </c>
+      <c r="HO1">
+        <v>2220</v>
+      </c>
+      <c r="HP1">
+        <v>2230</v>
+      </c>
+      <c r="HQ1">
+        <v>2240</v>
+      </c>
+      <c r="HR1">
+        <v>2250</v>
+      </c>
+      <c r="HS1">
+        <v>2260</v>
+      </c>
+      <c r="HT1">
+        <v>2270</v>
+      </c>
+      <c r="HU1">
+        <v>2280</v>
+      </c>
+      <c r="HV1">
+        <v>2290</v>
+      </c>
+      <c r="HW1">
+        <v>2300</v>
+      </c>
+      <c r="HX1">
+        <v>2310</v>
+      </c>
+      <c r="HY1">
+        <v>2320</v>
+      </c>
+      <c r="HZ1">
+        <v>2330</v>
+      </c>
+      <c r="IA1">
+        <v>2340</v>
+      </c>
+      <c r="IB1">
+        <v>2350</v>
+      </c>
+      <c r="IC1">
+        <v>2360</v>
+      </c>
+      <c r="ID1">
+        <v>2370</v>
+      </c>
+      <c r="IE1">
+        <v>2380</v>
+      </c>
+      <c r="IF1">
+        <v>2390</v>
+      </c>
+      <c r="IG1">
+        <v>2400</v>
+      </c>
+      <c r="IH1">
+        <v>2410</v>
+      </c>
+      <c r="II1">
+        <v>2420</v>
+      </c>
+      <c r="IJ1">
+        <v>2430</v>
+      </c>
+      <c r="IK1">
+        <v>2440</v>
+      </c>
+      <c r="IL1">
+        <v>2450</v>
+      </c>
+      <c r="IM1">
+        <v>2460</v>
+      </c>
+      <c r="IN1">
+        <v>2470</v>
+      </c>
+      <c r="IO1">
+        <v>2480</v>
+      </c>
+      <c r="IP1">
+        <v>2490</v>
+      </c>
+      <c r="IQ1">
+        <v>2500</v>
+      </c>
+      <c r="IR1">
+        <v>2510</v>
+      </c>
+      <c r="IS1">
+        <v>2520</v>
+      </c>
+      <c r="IT1">
+        <v>2530</v>
+      </c>
+      <c r="IU1">
+        <v>2540</v>
+      </c>
+      <c r="IV1">
+        <v>2550</v>
+      </c>
+      <c r="IW1">
+        <v>2560</v>
+      </c>
+      <c r="IX1">
+        <v>2570</v>
+      </c>
+      <c r="IY1">
+        <v>2580</v>
+      </c>
+      <c r="IZ1">
+        <v>2590</v>
+      </c>
+      <c r="JA1">
+        <v>2600</v>
+      </c>
+      <c r="JB1">
+        <v>2610</v>
+      </c>
+      <c r="JC1">
+        <v>2620</v>
+      </c>
+      <c r="JD1">
+        <v>2630</v>
+      </c>
+      <c r="JE1">
+        <v>2640</v>
+      </c>
+      <c r="JF1">
+        <v>2650</v>
+      </c>
+      <c r="JG1">
+        <v>2660</v>
+      </c>
+      <c r="JH1">
+        <v>2670</v>
+      </c>
+      <c r="JI1">
+        <v>2680</v>
+      </c>
+      <c r="JJ1">
+        <v>2690</v>
+      </c>
+      <c r="JK1">
+        <v>2700</v>
+      </c>
+      <c r="JL1">
+        <v>2710</v>
+      </c>
+      <c r="JM1">
+        <v>2720</v>
+      </c>
+      <c r="JN1">
+        <v>2730</v>
+      </c>
+      <c r="JO1">
+        <v>2740</v>
+      </c>
+      <c r="JP1">
+        <v>2750</v>
+      </c>
+      <c r="JQ1">
+        <v>2760</v>
+      </c>
+      <c r="JR1">
+        <v>2770</v>
+      </c>
+      <c r="JS1">
+        <v>2780</v>
+      </c>
+      <c r="JT1">
+        <v>2790</v>
+      </c>
+      <c r="JU1">
+        <v>2800</v>
+      </c>
+      <c r="JV1">
+        <v>2810</v>
+      </c>
+      <c r="JW1">
+        <v>2820</v>
+      </c>
+      <c r="JX1">
+        <v>2830</v>
+      </c>
+      <c r="JY1">
+        <v>2840</v>
+      </c>
+      <c r="JZ1">
+        <v>2850</v>
+      </c>
+      <c r="KA1">
+        <v>2860</v>
+      </c>
+      <c r="KB1">
+        <v>2870</v>
+      </c>
+      <c r="KC1">
+        <v>2880</v>
+      </c>
+      <c r="KD1">
+        <v>2890</v>
+      </c>
+      <c r="KE1">
+        <v>2900</v>
+      </c>
+      <c r="KF1">
+        <v>2910</v>
+      </c>
+      <c r="KG1">
+        <v>2920</v>
+      </c>
+      <c r="KH1">
+        <v>2930</v>
+      </c>
+      <c r="KI1">
+        <v>2940</v>
+      </c>
+      <c r="KJ1">
+        <v>2950</v>
+      </c>
+      <c r="KK1">
+        <v>2960</v>
+      </c>
+      <c r="KL1">
+        <v>2970</v>
+      </c>
+      <c r="KM1">
+        <v>2980</v>
+      </c>
+      <c r="KN1">
+        <v>2990</v>
+      </c>
+      <c r="KO1">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4484,310 +7464,1510 @@
       <c r="CW2">
         <v>102.973418084454</v>
       </c>
+      <c r="CX2">
+        <v>101.880935209708</v>
+      </c>
+      <c r="CY2">
+        <v>102.630652503834</v>
+      </c>
+      <c r="CZ2">
+        <v>102.672796160128</v>
+      </c>
+      <c r="DA2">
+        <v>102.954947906277</v>
+      </c>
+      <c r="DB2">
+        <v>102.615932669014</v>
+      </c>
+      <c r="DC2">
+        <v>102.621591084334</v>
+      </c>
+      <c r="DD2">
+        <v>103.08728969470999</v>
+      </c>
+      <c r="DE2">
+        <v>103.150222819397</v>
+      </c>
+      <c r="DF2">
+        <v>102.872783881045</v>
+      </c>
+      <c r="DG2">
+        <v>102.84817078075</v>
+      </c>
+      <c r="DH2">
+        <v>102.43225342642</v>
+      </c>
+      <c r="DI2">
+        <v>102.778079094916</v>
+      </c>
+      <c r="DJ2">
+        <v>102.64141781307499</v>
+      </c>
+      <c r="DK2">
+        <v>102.660462618963</v>
+      </c>
+      <c r="DL2">
+        <v>103.821537213197</v>
+      </c>
+      <c r="DM2">
+        <v>102.79411612289999</v>
+      </c>
+      <c r="DN2">
+        <v>102.791874173529</v>
+      </c>
+      <c r="DO2">
+        <v>102.95315612023801</v>
+      </c>
+      <c r="DP2">
+        <v>103.022352392621</v>
+      </c>
+      <c r="DQ2">
+        <v>102.517391840282</v>
+      </c>
+      <c r="DR2">
+        <v>102.908571217949</v>
+      </c>
+      <c r="DS2">
+        <v>102.865116794287</v>
+      </c>
+      <c r="DT2">
+        <v>102.752591594818</v>
+      </c>
+      <c r="DU2">
+        <v>102.61133864195401</v>
+      </c>
+      <c r="DV2">
+        <v>103.228892153207</v>
+      </c>
+      <c r="DW2">
+        <v>102.746037351385</v>
+      </c>
+      <c r="DX2">
+        <v>102.61670050778</v>
+      </c>
+      <c r="DY2">
+        <v>102.681418950658</v>
+      </c>
+      <c r="DZ2">
+        <v>102.739356851252</v>
+      </c>
+      <c r="EA2">
+        <v>102.793799511407</v>
+      </c>
+      <c r="EB2">
+        <v>102.95539240984</v>
+      </c>
+      <c r="EC2">
+        <v>102.774617095165</v>
+      </c>
+      <c r="ED2">
+        <v>102.96296236539899</v>
+      </c>
+      <c r="EE2">
+        <v>102.904899388473</v>
+      </c>
+      <c r="EF2">
+        <v>102.905149274411</v>
+      </c>
+      <c r="EG2">
+        <v>102.017009632971</v>
+      </c>
+      <c r="EH2">
+        <v>102.575080777545</v>
+      </c>
+      <c r="EI2">
+        <v>102.634470994523</v>
+      </c>
+      <c r="EJ2">
+        <v>102.720706213068</v>
+      </c>
+      <c r="EK2">
+        <v>102.845227516688</v>
+      </c>
+      <c r="EL2">
+        <v>101.859245712609</v>
+      </c>
+      <c r="EM2">
+        <v>102.766399994401</v>
+      </c>
+      <c r="EN2">
+        <v>102.68596395461699</v>
+      </c>
+      <c r="EO2">
+        <v>102.79961521048899</v>
+      </c>
+      <c r="EP2">
+        <v>102.830891342078</v>
+      </c>
+      <c r="EQ2">
+        <v>102.683897837421</v>
+      </c>
+      <c r="ER2">
+        <v>102.903196205862</v>
+      </c>
+      <c r="ES2">
+        <v>102.79328454408</v>
+      </c>
+      <c r="ET2">
+        <v>102.725755818537</v>
+      </c>
+      <c r="EU2">
+        <v>102.75288606309999</v>
+      </c>
+      <c r="EV2">
+        <v>102.777427261238</v>
+      </c>
+      <c r="EW2">
+        <v>102.97675106633601</v>
+      </c>
+      <c r="EX2">
+        <v>102.805023308777</v>
+      </c>
+      <c r="EY2">
+        <v>102.582392595806</v>
+      </c>
+      <c r="EZ2">
+        <v>102.87139251249999</v>
+      </c>
+      <c r="FA2">
+        <v>102.929859882652</v>
+      </c>
+      <c r="FB2">
+        <v>102.32921133205301</v>
+      </c>
+      <c r="FC2">
+        <v>102.51798887999099</v>
+      </c>
+      <c r="FD2">
+        <v>102.722125706442</v>
+      </c>
+      <c r="FE2">
+        <v>102.844687225641</v>
+      </c>
+      <c r="FF2">
+        <v>102.811193050291</v>
+      </c>
+      <c r="FG2">
+        <v>102.949571470701</v>
+      </c>
+      <c r="FH2">
+        <v>102.83248070536</v>
+      </c>
+      <c r="FI2">
+        <v>102.913291417639</v>
+      </c>
+      <c r="FJ2">
+        <v>102.62581331969</v>
+      </c>
+      <c r="FK2">
+        <v>102.804161540208</v>
+      </c>
+      <c r="FL2">
+        <v>104.900626950469</v>
+      </c>
+      <c r="FM2">
+        <v>102.596614165994</v>
+      </c>
+      <c r="FN2">
+        <v>102.59953763508101</v>
+      </c>
+      <c r="FO2">
+        <v>102.706333995469</v>
+      </c>
+      <c r="FP2">
+        <v>102.817051741255</v>
+      </c>
+      <c r="FQ2">
+        <v>102.729347389807</v>
+      </c>
+      <c r="FR2">
+        <v>102.805832352544</v>
+      </c>
+      <c r="FS2">
+        <v>102.419277067095</v>
+      </c>
+      <c r="FT2">
+        <v>102.848993188202</v>
+      </c>
+      <c r="FU2">
+        <v>102.564681248173</v>
+      </c>
+      <c r="FV2">
+        <v>102.608224739251</v>
+      </c>
+      <c r="FW2">
+        <v>102.875338590704</v>
+      </c>
+      <c r="FX2">
+        <v>103.035969850954</v>
+      </c>
+      <c r="FY2">
+        <v>102.755829594389</v>
+      </c>
+      <c r="FZ2">
+        <v>102.53101301122599</v>
+      </c>
+      <c r="GA2">
+        <v>102.700206854393</v>
+      </c>
+      <c r="GB2">
+        <v>102.789518234748</v>
+      </c>
+      <c r="GC2">
+        <v>102.798198918182</v>
+      </c>
+      <c r="GD2">
+        <v>102.81831134939</v>
+      </c>
+      <c r="GE2">
+        <v>102.765428097474</v>
+      </c>
+      <c r="GF2">
+        <v>102.637908799901</v>
+      </c>
+      <c r="GG2">
+        <v>103.10209513860799</v>
+      </c>
+      <c r="GH2">
+        <v>102.61448784084899</v>
+      </c>
+      <c r="GI2">
+        <v>102.739919424547</v>
+      </c>
+      <c r="GJ2">
+        <v>102.783362913456</v>
+      </c>
+      <c r="GK2">
+        <v>102.539522399557</v>
+      </c>
+      <c r="GL2">
+        <v>102.570863520042</v>
+      </c>
+      <c r="GM2">
+        <v>102.849365875697</v>
+      </c>
+      <c r="GN2">
+        <v>102.72758824849301</v>
+      </c>
+      <c r="GO2">
+        <v>102.830107895878</v>
+      </c>
+      <c r="GP2">
+        <v>102.702545909224</v>
+      </c>
+      <c r="GQ2">
+        <v>102.641482160076</v>
+      </c>
+      <c r="GR2">
+        <v>102.83282026070501</v>
+      </c>
+      <c r="GS2">
+        <v>102.761326181062</v>
+      </c>
+      <c r="GT2">
+        <v>102.7568409039</v>
+      </c>
+      <c r="GU2">
+        <v>102.64335812231199</v>
+      </c>
+      <c r="GV2">
+        <v>102.70483487015299</v>
+      </c>
+      <c r="GW2">
+        <v>102.91545722999901</v>
+      </c>
+      <c r="GX2">
+        <v>102.742549037058</v>
+      </c>
+      <c r="GY2">
+        <v>102.704588851087</v>
+      </c>
+      <c r="GZ2">
+        <v>102.772257205987</v>
+      </c>
+      <c r="HA2">
+        <v>102.621906998349</v>
+      </c>
+      <c r="HB2">
+        <v>103.213277186938</v>
+      </c>
+      <c r="HC2">
+        <v>102.76154172557899</v>
+      </c>
+      <c r="HD2">
+        <v>102.72858255060601</v>
+      </c>
+      <c r="HE2">
+        <v>102.805948400605</v>
+      </c>
+      <c r="HF2">
+        <v>102.86861235258699</v>
+      </c>
+      <c r="HG2">
+        <v>103.426361717278</v>
+      </c>
+      <c r="HH2">
+        <v>102.686379580962</v>
+      </c>
+      <c r="HI2">
+        <v>102.821370523832</v>
+      </c>
+      <c r="HJ2">
+        <v>102.66387677663</v>
+      </c>
+      <c r="HK2">
+        <v>102.733508713055</v>
+      </c>
+      <c r="HL2">
+        <v>102.820995850157</v>
+      </c>
+      <c r="HM2">
+        <v>102.68309739890201</v>
+      </c>
+      <c r="HN2">
+        <v>102.523311817267</v>
+      </c>
+      <c r="HO2">
+        <v>102.601813434319</v>
+      </c>
+      <c r="HP2">
+        <v>102.773580787518</v>
+      </c>
+      <c r="HQ2">
+        <v>102.651165716937</v>
+      </c>
+      <c r="HR2">
+        <v>102.676449545287</v>
+      </c>
+      <c r="HS2">
+        <v>102.747002018703</v>
+      </c>
+      <c r="HT2">
+        <v>102.608037763764</v>
+      </c>
+      <c r="HU2">
+        <v>102.759718016607</v>
+      </c>
+      <c r="HV2">
+        <v>102.608481037161</v>
+      </c>
+      <c r="HW2">
+        <v>103.108362233195</v>
+      </c>
+      <c r="HX2">
+        <v>102.781810829177</v>
+      </c>
+      <c r="HY2">
+        <v>102.81192909151</v>
+      </c>
+      <c r="HZ2">
+        <v>102.762430544881</v>
+      </c>
+      <c r="IA2">
+        <v>102.731680026248</v>
+      </c>
+      <c r="IB2">
+        <v>102.946334541697</v>
+      </c>
+      <c r="IC2">
+        <v>102.74585861659</v>
+      </c>
+      <c r="ID2">
+        <v>102.81488507706599</v>
+      </c>
+      <c r="IE2">
+        <v>102.825101044973</v>
+      </c>
+      <c r="IF2">
+        <v>102.647205212812</v>
+      </c>
+      <c r="IG2">
+        <v>102.19002975458601</v>
+      </c>
+      <c r="IH2">
+        <v>102.882138452436</v>
+      </c>
+      <c r="II2">
+        <v>102.74839130059399</v>
+      </c>
+      <c r="IJ2">
+        <v>102.75221020536701</v>
+      </c>
+      <c r="IK2">
+        <v>102.728659057836</v>
+      </c>
+      <c r="IL2">
+        <v>102.767564420841</v>
+      </c>
+      <c r="IM2">
+        <v>102.706709338533</v>
+      </c>
+      <c r="IN2">
+        <v>102.95081665767199</v>
+      </c>
+      <c r="IO2">
+        <v>102.830994296711</v>
+      </c>
+      <c r="IP2">
+        <v>102.83190932979301</v>
+      </c>
+      <c r="IQ2">
+        <v>102.81417348492501</v>
+      </c>
+      <c r="IR2">
+        <v>102.70828542964701</v>
+      </c>
+      <c r="IS2">
+        <v>102.79273336719</v>
+      </c>
+      <c r="IT2">
+        <v>102.78512406397699</v>
+      </c>
+      <c r="IU2">
+        <v>102.591138171141</v>
+      </c>
+      <c r="IV2">
+        <v>102.72398123270401</v>
+      </c>
+      <c r="IW2">
+        <v>102.767043043909</v>
+      </c>
+      <c r="IX2">
+        <v>102.73596084043299</v>
+      </c>
+      <c r="IY2">
+        <v>102.796905879104</v>
+      </c>
+      <c r="IZ2">
+        <v>102.655160268861</v>
+      </c>
+      <c r="JA2">
+        <v>102.7869224928</v>
+      </c>
+      <c r="JB2">
+        <v>103.24397866736</v>
+      </c>
+      <c r="JC2">
+        <v>102.85269174217601</v>
+      </c>
+      <c r="JD2">
+        <v>102.80165552298701</v>
+      </c>
+      <c r="JE2">
+        <v>102.81767775635799</v>
+      </c>
+      <c r="JF2">
+        <v>102.744984743475</v>
+      </c>
+      <c r="JG2">
+        <v>102.746946193642</v>
+      </c>
+      <c r="JH2">
+        <v>102.856085964358</v>
+      </c>
+      <c r="JI2">
+        <v>102.79700455188799</v>
+      </c>
+      <c r="JJ2">
+        <v>102.85841853585499</v>
+      </c>
+      <c r="JK2">
+        <v>102.741383406605</v>
+      </c>
+      <c r="JL2">
+        <v>102.892274697727</v>
+      </c>
+      <c r="JM2">
+        <v>102.673440421821</v>
+      </c>
+      <c r="JN2">
+        <v>102.72351560049501</v>
+      </c>
+      <c r="JO2">
+        <v>102.767774300098</v>
+      </c>
+      <c r="JP2">
+        <v>102.788757098617</v>
+      </c>
+      <c r="JQ2">
+        <v>102.800076020779</v>
+      </c>
+      <c r="JR2">
+        <v>102.851766212576</v>
+      </c>
+      <c r="JS2">
+        <v>102.885849928102</v>
+      </c>
+      <c r="JT2">
+        <v>102.80504735441799</v>
+      </c>
+      <c r="JU2">
+        <v>102.730928575932</v>
+      </c>
+      <c r="JV2">
+        <v>102.761194156888</v>
+      </c>
+      <c r="JW2">
+        <v>102.1378259322</v>
+      </c>
+      <c r="JX2">
+        <v>102.630259155825</v>
+      </c>
+      <c r="JY2">
+        <v>102.70402998736</v>
+      </c>
+      <c r="JZ2">
+        <v>102.76518153273101</v>
+      </c>
+      <c r="KA2">
+        <v>102.69319766114999</v>
+      </c>
+      <c r="KB2">
+        <v>103.013444551109</v>
+      </c>
+      <c r="KC2">
+        <v>102.77890131676</v>
+      </c>
+      <c r="KD2">
+        <v>102.702630606686</v>
+      </c>
+      <c r="KE2">
+        <v>102.713120537286</v>
+      </c>
+      <c r="KF2">
+        <v>102.637364464616</v>
+      </c>
+      <c r="KG2">
+        <v>102.75563646692299</v>
+      </c>
+      <c r="KH2">
+        <v>102.677776886548</v>
+      </c>
+      <c r="KI2">
+        <v>102.81987200073399</v>
+      </c>
+      <c r="KJ2">
+        <v>102.672862053401</v>
+      </c>
+      <c r="KK2">
+        <v>102.745432794371</v>
+      </c>
+      <c r="KL2">
+        <v>102.734446936764</v>
+      </c>
+      <c r="KM2">
+        <v>102.729627792274</v>
+      </c>
+      <c r="KN2">
+        <v>102.734711433768</v>
+      </c>
+      <c r="KO2">
+        <v>102.742279076606</v>
+      </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.56216621398925E-2</v>
+        <v>1.5620946884155201E-2</v>
       </c>
       <c r="C3">
-        <v>4.2863130569458001E-2</v>
+        <v>2.36637592315673E-2</v>
       </c>
       <c r="D3">
-        <v>3.7205457687377902E-2</v>
+        <v>4.68649864196777E-2</v>
       </c>
       <c r="E3">
-        <v>7.8106403350829995E-2</v>
+        <v>6.2484264373779297E-2</v>
       </c>
       <c r="F3">
-        <v>8.3480596542358398E-2</v>
+        <v>9.3727588653564398E-2</v>
       </c>
       <c r="G3">
-        <v>9.9395990371704102E-2</v>
+        <v>9.3727827072143499E-2</v>
       </c>
       <c r="H3">
-        <v>0.100116729736328</v>
+        <v>0.109349250793457</v>
       </c>
       <c r="I3">
-        <v>0.12496829032897901</v>
+        <v>0.124970436096191</v>
       </c>
       <c r="J3">
-        <v>0.140591621398925</v>
+        <v>0.14165544509887601</v>
       </c>
       <c r="K3">
         <v>0.14059209823608301</v>
       </c>
       <c r="L3">
-        <v>0.17183494567870999</v>
+        <v>0.15621280670165999</v>
       </c>
       <c r="M3">
-        <v>0.15621232986450101</v>
+        <v>0.17183446884155201</v>
       </c>
       <c r="N3">
-        <v>0.15830564498901301</v>
+        <v>0.170281171798706</v>
       </c>
       <c r="O3">
-        <v>0.18745541572570801</v>
+        <v>0.171834707260131</v>
       </c>
       <c r="P3">
-        <v>0.18816137313842701</v>
+        <v>0.19548845291137601</v>
       </c>
       <c r="Q3">
-        <v>0.203076362609863</v>
+        <v>0.187455654144287</v>
       </c>
       <c r="R3">
-        <v>0.21869850158691401</v>
+        <v>0.2030770778656</v>
       </c>
       <c r="S3">
-        <v>0.20412755012512199</v>
+        <v>0.21937370300292899</v>
       </c>
       <c r="T3">
+        <v>0.21869826316833399</v>
+      </c>
+      <c r="U3">
+        <v>0.23535871505737299</v>
+      </c>
+      <c r="V3">
         <v>0.23431992530822701</v>
       </c>
-      <c r="U3">
-        <v>0.234319448471069</v>
-      </c>
-      <c r="V3">
-        <v>0.25080013275146401</v>
-      </c>
       <c r="W3">
-        <v>0.25101017951965299</v>
+        <v>0.26645517349243097</v>
       </c>
       <c r="X3">
-        <v>0.26556229591369601</v>
+        <v>0.265562534332275</v>
       </c>
       <c r="Y3">
-        <v>0.269234418869018</v>
+        <v>0.26661086082458402</v>
       </c>
       <c r="Z3">
-        <v>0.29680466651916498</v>
+        <v>0.29898142814636203</v>
       </c>
       <c r="AA3">
-        <v>0.30825638771057101</v>
+        <v>0.30069160461425698</v>
       </c>
       <c r="AB3">
+        <v>0.30804467201232899</v>
+      </c>
+      <c r="AC3">
+        <v>0.32936739921569802</v>
+      </c>
+      <c r="AD3">
         <v>0.32804751396179199</v>
       </c>
-      <c r="AC3">
-        <v>0.32073807716369601</v>
-      </c>
-      <c r="AD3">
-        <v>0.34573841094970698</v>
-      </c>
       <c r="AE3">
+        <v>0.353690385818481</v>
+      </c>
+      <c r="AF3">
         <v>0.34366869926452598</v>
       </c>
-      <c r="AF3">
-        <v>0.35929059982299799</v>
-      </c>
       <c r="AG3">
-        <v>0.37653398513793901</v>
+        <v>0.374911308288574</v>
       </c>
       <c r="AH3">
-        <v>0.39319586753845198</v>
+        <v>0.37597894668579102</v>
       </c>
       <c r="AI3">
-        <v>0.392833471298217</v>
+        <v>0.39111375808715798</v>
       </c>
       <c r="AJ3">
-        <v>0.41558623313903797</v>
+        <v>0.40615439414978</v>
       </c>
       <c r="AK3">
-        <v>0.42534804344177202</v>
+        <v>0.411976099014282</v>
       </c>
       <c r="AL3">
-        <v>0.43842959403991699</v>
+        <v>0.43739652633666898</v>
       </c>
       <c r="AM3">
-        <v>0.46169734001159601</v>
+        <v>0.43843531608581499</v>
       </c>
       <c r="AN3">
-        <v>0.44414401054382302</v>
+        <v>0.43903660774230902</v>
       </c>
       <c r="AO3">
-        <v>0.47894167900085399</v>
+        <v>0.45907425880432101</v>
       </c>
       <c r="AP3">
-        <v>0.471359252929687</v>
+        <v>0.47567033767700101</v>
       </c>
       <c r="AQ3">
-        <v>0.48426055908203097</v>
+        <v>0.485304355621337</v>
       </c>
       <c r="AR3">
-        <v>0.50161767005920399</v>
+        <v>0.49988126754760698</v>
       </c>
       <c r="AS3">
-        <v>0.51550340652465798</v>
+        <v>0.50093054771423295</v>
       </c>
       <c r="AT3">
-        <v>0.51654624938964799</v>
+        <v>0.51608920097350997</v>
       </c>
       <c r="AU3">
-        <v>0.53112435340881303</v>
+        <v>0.520039081573486</v>
       </c>
       <c r="AV3">
-        <v>0.55002880096435502</v>
+        <v>0.53112459182739202</v>
       </c>
       <c r="AW3">
-        <v>0.55043649673461903</v>
+        <v>0.55077838897705</v>
       </c>
       <c r="AX3">
-        <v>0.571119785308837</v>
+        <v>0.56707143783569303</v>
       </c>
       <c r="AY3">
-        <v>0.57905101776123002</v>
+        <v>0.55930924415588301</v>
       </c>
       <c r="AZ3">
-        <v>0.59361028671264604</v>
+        <v>0.58196830749511697</v>
       </c>
       <c r="BA3">
-        <v>0.595220327377319</v>
+        <v>0.59469676017761197</v>
       </c>
       <c r="BB3">
-        <v>0.62485194206237704</v>
+        <v>0.610271215438842</v>
       </c>
       <c r="BC3">
-        <v>0.62691950798034601</v>
+        <v>0.60980868339538497</v>
       </c>
       <c r="BD3">
-        <v>0.636793613433837</v>
+        <v>0.63215994834899902</v>
       </c>
       <c r="BE3">
-        <v>0.65984678268432595</v>
+        <v>0.64047360420226995</v>
       </c>
       <c r="BF3">
-        <v>0.65664219856262196</v>
+        <v>0.64554047584533603</v>
       </c>
       <c r="BG3">
-        <v>0.67278480529785101</v>
+        <v>0.65315413475036599</v>
       </c>
       <c r="BH3">
-        <v>0.68526172637939398</v>
+        <v>0.67692494392394997</v>
       </c>
       <c r="BI3">
-        <v>0.68940901756286599</v>
+        <v>0.68838906288146895</v>
       </c>
       <c r="BJ3">
-        <v>0.70402503013610795</v>
+        <v>0.69930434226989702</v>
       </c>
       <c r="BK3">
-        <v>0.73663187026977495</v>
+        <v>0.70399355888366699</v>
       </c>
       <c r="BL3">
-        <v>0.72329950332641602</v>
+        <v>0.72804045677185003</v>
       </c>
       <c r="BM3">
-        <v>0.754871606826782</v>
+        <v>0.72282028198242099</v>
       </c>
       <c r="BN3">
-        <v>0.77381086349487305</v>
+        <v>0.74887967109680098</v>
       </c>
       <c r="BO3">
-        <v>0.76620244979858398</v>
+        <v>0.74879980087280196</v>
       </c>
       <c r="BP3">
-        <v>0.782795190811157</v>
+        <v>0.76544404029846103</v>
       </c>
       <c r="BQ3">
-        <v>0.79840183258056596</v>
+        <v>0.78269672393798795</v>
       </c>
       <c r="BR3">
-        <v>0.79870009422302202</v>
+        <v>0.78213524818420399</v>
       </c>
       <c r="BS3">
-        <v>0.81426906585693304</v>
+        <v>0.80607414245605402</v>
       </c>
       <c r="BT3">
-        <v>0.827930688858032</v>
+        <v>0.80989289283752397</v>
       </c>
       <c r="BU3">
-        <v>0.82901787757873502</v>
+        <v>0.81253433227538996</v>
       </c>
       <c r="BV3">
-        <v>0.84460186958312899</v>
+        <v>0.82896924018859797</v>
       </c>
       <c r="BW3">
-        <v>0.86079788208007801</v>
+        <v>0.84464526176452603</v>
       </c>
       <c r="BX3">
-        <v>0.86244988441467196</v>
+        <v>0.84517860412597601</v>
       </c>
       <c r="BY3">
-        <v>0.88360023498535101</v>
+        <v>0.86323165893554599</v>
       </c>
       <c r="BZ3">
-        <v>0.90726089477538996</v>
+        <v>0.87727284431457497</v>
       </c>
       <c r="CA3">
-        <v>0.89212632179260198</v>
+        <v>0.88031268119812001</v>
       </c>
       <c r="CB3">
-        <v>0.922321557998657</v>
+        <v>0.90708398818969704</v>
       </c>
       <c r="CC3">
-        <v>0.92374014854431097</v>
+        <v>0.90766572952270497</v>
       </c>
       <c r="CD3">
-        <v>0.94238376617431596</v>
+        <v>0.92626905441284102</v>
       </c>
       <c r="CE3">
-        <v>0.93562960624694802</v>
+        <v>0.92243766784667902</v>
       </c>
       <c r="CF3">
-        <v>0.96094441413879395</v>
+        <v>0.93367171287536599</v>
       </c>
       <c r="CG3">
-        <v>0.97159123420715299</v>
+        <v>0.95393967628479004</v>
       </c>
       <c r="CH3">
-        <v>0.98520112037658603</v>
+        <v>1.00184178352355</v>
       </c>
       <c r="CI3">
-        <v>0.99035239219665505</v>
+        <v>0.98518061637878396</v>
       </c>
       <c r="CJ3">
-        <v>1.0155320167541499</v>
+        <v>0.98346376419067305</v>
       </c>
       <c r="CK3">
-        <v>1.0174634456634499</v>
+        <v>0.99656248092651301</v>
       </c>
       <c r="CL3">
-        <v>1.03262686729431</v>
+        <v>1.01942634582519</v>
       </c>
       <c r="CM3">
-        <v>1.0476820468902499</v>
+        <v>1.0171091556548999</v>
       </c>
       <c r="CN3">
-        <v>1.03928351402282</v>
+        <v>1.0320587158203101</v>
       </c>
       <c r="CO3">
-        <v>1.0508437156677199</v>
+        <v>1.0472507476806601</v>
       </c>
       <c r="CP3">
-        <v>1.0806262493133501</v>
+        <v>1.07072281837463</v>
       </c>
       <c r="CQ3">
-        <v>1.09453344345092</v>
+        <v>1.06393671035766</v>
       </c>
       <c r="CR3">
-        <v>1.09555912017822</v>
+        <v>1.08225417137146</v>
       </c>
       <c r="CS3">
-        <v>1.11119508743286</v>
+        <v>1.0795695781707699</v>
       </c>
       <c r="CT3">
-        <v>1.11985731124877</v>
+        <v>1.1182172298431301</v>
       </c>
       <c r="CU3">
-        <v>1.1420924663543699</v>
+        <v>1.0992088317871</v>
       </c>
       <c r="CV3">
-        <v>1.15990710258483</v>
+        <v>1.1101593971252399</v>
       </c>
       <c r="CW3">
-        <v>1.14611196517944</v>
+        <v>1.1625552177429199</v>
+      </c>
+      <c r="CX3">
+        <v>1.14542531967163</v>
+      </c>
+      <c r="CY3">
+        <v>1.15407371520996</v>
+      </c>
+      <c r="CZ3">
+        <v>1.17556548118591</v>
+      </c>
+      <c r="DA3">
+        <v>1.1900930404662999</v>
+      </c>
+      <c r="DB3">
+        <v>1.18141984939575</v>
+      </c>
+      <c r="DC3">
+        <v>1.22039818763732</v>
+      </c>
+      <c r="DD3">
+        <v>1.2361352443695</v>
+      </c>
+      <c r="DE3">
+        <v>1.23577308654785</v>
+      </c>
+      <c r="DF3">
+        <v>1.2361485958099301</v>
+      </c>
+      <c r="DG3">
+        <v>1.2614836692810001</v>
+      </c>
+      <c r="DH3">
+        <v>1.26897048950195</v>
+      </c>
+      <c r="DI3">
+        <v>1.2663600444793699</v>
+      </c>
+      <c r="DJ3">
+        <v>1.2940359115600499</v>
+      </c>
+      <c r="DK3">
+        <v>1.3147490024566599</v>
+      </c>
+      <c r="DL3">
+        <v>1.31322765350341</v>
+      </c>
+      <c r="DM3">
+        <v>1.32480192184448</v>
+      </c>
+      <c r="DN3">
+        <v>1.3265178203582699</v>
+      </c>
+      <c r="DO3">
+        <v>1.3471257686614899</v>
+      </c>
+      <c r="DP3">
+        <v>1.3574812412261901</v>
+      </c>
+      <c r="DQ3">
+        <v>1.3615362644195499</v>
+      </c>
+      <c r="DR3">
+        <v>1.5466499328613199</v>
+      </c>
+      <c r="DS3">
+        <v>1.38857316970825</v>
+      </c>
+      <c r="DT3">
+        <v>1.3948061466217001</v>
+      </c>
+      <c r="DU3">
+        <v>1.40799307823181</v>
+      </c>
+      <c r="DV3">
+        <v>1.4317920207977199</v>
+      </c>
+      <c r="DW3">
+        <v>1.44063544273376</v>
+      </c>
+      <c r="DX3">
+        <v>1.43821692466735</v>
+      </c>
+      <c r="DY3">
+        <v>1.44219326972961</v>
+      </c>
+      <c r="DZ3">
+        <v>1.4703130722045801</v>
+      </c>
+      <c r="EA3">
+        <v>1.48975849151611</v>
+      </c>
+      <c r="EB3">
+        <v>1.4905858039855899</v>
+      </c>
+      <c r="EC3">
+        <v>1.5203011035919101</v>
+      </c>
+      <c r="ED3">
+        <v>1.5202932357787999</v>
+      </c>
+      <c r="EE3">
+        <v>1.53297090530395</v>
+      </c>
+      <c r="EF3">
+        <v>1.54012775421142</v>
+      </c>
+      <c r="EG3">
+        <v>1.5685908794403001</v>
+      </c>
+      <c r="EH3">
+        <v>1.5637581348419101</v>
+      </c>
+      <c r="EI3">
+        <v>1.5770568847656199</v>
+      </c>
+      <c r="EJ3">
+        <v>1.5989017486572199</v>
+      </c>
+      <c r="EK3">
+        <v>1.6090726852416899</v>
+      </c>
+      <c r="EL3">
+        <v>1.6086962223052901</v>
+      </c>
+      <c r="EM3">
+        <v>1.73236536979675</v>
+      </c>
+      <c r="EN3">
+        <v>1.78601145744323</v>
+      </c>
+      <c r="EO3">
+        <v>1.68317151069641</v>
+      </c>
+      <c r="EP3">
+        <v>1.6960425376892001</v>
+      </c>
+      <c r="EQ3">
+        <v>1.7434282302856401</v>
+      </c>
+      <c r="ER3">
+        <v>1.7403440475463801</v>
+      </c>
+      <c r="ES3">
+        <v>1.7325363159179601</v>
+      </c>
+      <c r="ET3">
+        <v>1.693208694458</v>
+      </c>
+      <c r="EU3">
+        <v>1.7090871334075901</v>
+      </c>
+      <c r="EV3">
+        <v>1.71904969215393</v>
+      </c>
+      <c r="EW3">
+        <v>1.7303709983825599</v>
+      </c>
+      <c r="EX3">
+        <v>1.7371416091918901</v>
+      </c>
+      <c r="EY3">
+        <v>1.75031757354736</v>
+      </c>
+      <c r="EZ3">
+        <v>1.78282141685485</v>
+      </c>
+      <c r="FA3">
+        <v>1.7879621982574401</v>
+      </c>
+      <c r="FB3">
+        <v>1.7898652553558301</v>
+      </c>
+      <c r="FC3">
+        <v>1.8028690814971899</v>
+      </c>
+      <c r="FD3">
+        <v>1.86002397537231</v>
+      </c>
+      <c r="FE3">
+        <v>1.8253188133239699</v>
+      </c>
+      <c r="FF3">
+        <v>1.8739869594573899</v>
+      </c>
+      <c r="FG3">
+        <v>1.86587214469909</v>
+      </c>
+      <c r="FH3">
+        <v>1.85468029975891</v>
+      </c>
+      <c r="FI3">
+        <v>1.8797698020935001</v>
+      </c>
+      <c r="FJ3">
+        <v>1.8786818981170601</v>
+      </c>
+      <c r="FK3">
+        <v>1.90727019309997</v>
+      </c>
+      <c r="FL3">
+        <v>1.89223980903625</v>
+      </c>
+      <c r="FM3">
+        <v>1.9243345260620099</v>
+      </c>
+      <c r="FN3">
+        <v>1.9262232780456501</v>
+      </c>
+      <c r="FO3">
+        <v>1.93387651443481</v>
+      </c>
+      <c r="FP3">
+        <v>1.9548144340515099</v>
+      </c>
+      <c r="FQ3">
+        <v>1.97122573852539</v>
+      </c>
+      <c r="FR3">
+        <v>1.97387242317199</v>
+      </c>
+      <c r="FS3">
+        <v>1.9712436199188199</v>
+      </c>
+      <c r="FT3">
+        <v>2.0043716430664</v>
+      </c>
+      <c r="FU3">
+        <v>2.0052635669708199</v>
+      </c>
+      <c r="FV3">
+        <v>2.0180485248565598</v>
+      </c>
+      <c r="FW3">
+        <v>2.02950119972229</v>
+      </c>
+      <c r="FX3">
+        <v>2.0398564338684002</v>
+      </c>
+      <c r="FY3">
+        <v>2.0615172386169398</v>
+      </c>
+      <c r="FZ3">
+        <v>2.0538196563720699</v>
+      </c>
+      <c r="GA3">
+        <v>2.0841205120086599</v>
+      </c>
+      <c r="GB3">
+        <v>2.0803694725036599</v>
+      </c>
+      <c r="GC3">
+        <v>2.09596824645996</v>
+      </c>
+      <c r="GD3">
+        <v>2.0990724563598602</v>
+      </c>
+      <c r="GE3">
+        <v>2.11938047409057</v>
+      </c>
+      <c r="GF3">
+        <v>2.1236708164214999</v>
+      </c>
+      <c r="GG3">
+        <v>2.1428205966949401</v>
+      </c>
+      <c r="GH3">
+        <v>2.1380586624145499</v>
+      </c>
+      <c r="GI3">
+        <v>2.1578240394592201</v>
+      </c>
+      <c r="GJ3">
+        <v>2.1901142597198402</v>
+      </c>
+      <c r="GK3">
+        <v>2.1949317455291699</v>
+      </c>
+      <c r="GL3">
+        <v>2.1953089237213099</v>
+      </c>
+      <c r="GM3">
+        <v>2.19131255149841</v>
+      </c>
+      <c r="GN3">
+        <v>2.4939212799072199</v>
+      </c>
+      <c r="GO3">
+        <v>2.3164439201354901</v>
+      </c>
+      <c r="GP3">
+        <v>2.2480328083038299</v>
+      </c>
+      <c r="GQ3">
+        <v>2.23407626152038</v>
+      </c>
+      <c r="GR3">
+        <v>2.2677471637725799</v>
+      </c>
+      <c r="GS3">
+        <v>2.2946889400482098</v>
+      </c>
+      <c r="GT3">
+        <v>2.3062944412231401</v>
+      </c>
+      <c r="GU3">
+        <v>2.3262879848480198</v>
+      </c>
+      <c r="GV3">
+        <v>2.2995252609252899</v>
+      </c>
+      <c r="GW3">
+        <v>2.3315913677215501</v>
+      </c>
+      <c r="GX3">
+        <v>2.32595443725585</v>
+      </c>
+      <c r="GY3">
+        <v>2.3315615653991699</v>
+      </c>
+      <c r="GZ3">
+        <v>2.34922051429748</v>
+      </c>
+      <c r="HA3">
+        <v>2.3794064521789502</v>
+      </c>
+      <c r="HB3">
+        <v>2.4035272598266602</v>
+      </c>
+      <c r="HC3">
+        <v>2.3828237056732098</v>
+      </c>
+      <c r="HD3">
+        <v>2.3878209590911799</v>
+      </c>
+      <c r="HE3">
+        <v>2.4194278717040998</v>
+      </c>
+      <c r="HF3">
+        <v>2.4096112251281698</v>
+      </c>
+      <c r="HG3">
+        <v>2.4469251632690399</v>
+      </c>
+      <c r="HH3">
+        <v>2.4573986530303902</v>
+      </c>
+      <c r="HI3">
+        <v>2.4605965614318799</v>
+      </c>
+      <c r="HJ3">
+        <v>2.4794504642486501</v>
+      </c>
+      <c r="HK3">
+        <v>2.482266664505</v>
+      </c>
+      <c r="HL3">
+        <v>2.4866840839385902</v>
+      </c>
+      <c r="HM3">
+        <v>2.4978141784667902</v>
+      </c>
+      <c r="HN3">
+        <v>2.5031113624572701</v>
+      </c>
+      <c r="HO3">
+        <v>2.5315284729003902</v>
+      </c>
+      <c r="HP3">
+        <v>2.5279238224029501</v>
+      </c>
+      <c r="HQ3">
+        <v>2.5350642204284601</v>
+      </c>
+      <c r="HR3">
+        <v>2.5737950801849299</v>
+      </c>
+      <c r="HS3">
+        <v>2.56704425811767</v>
+      </c>
+      <c r="HT3">
+        <v>2.5845808982849099</v>
+      </c>
+      <c r="HU3">
+        <v>2.6000874042510902</v>
+      </c>
+      <c r="HV3">
+        <v>2.60691833496093</v>
+      </c>
+      <c r="HW3">
+        <v>2.61703276634216</v>
+      </c>
+      <c r="HX3">
+        <v>2.6252481937408398</v>
+      </c>
+      <c r="HY3">
+        <v>2.6476485729217498</v>
+      </c>
+      <c r="HZ3">
+        <v>2.6510548591613698</v>
+      </c>
+      <c r="IA3">
+        <v>2.67796325683593</v>
+      </c>
+      <c r="IB3">
+        <v>2.6712572574615399</v>
+      </c>
+      <c r="IC3">
+        <v>2.69400882720947</v>
+      </c>
+      <c r="ID3">
+        <v>2.6985177993774401</v>
+      </c>
+      <c r="IE3">
+        <v>2.70068979263305</v>
+      </c>
+      <c r="IF3">
+        <v>2.7095270156860298</v>
+      </c>
+      <c r="IG3">
+        <v>2.7478258609771702</v>
+      </c>
+      <c r="IH3">
+        <v>2.7336721420288002</v>
+      </c>
+      <c r="II3">
+        <v>2.7647969722747798</v>
+      </c>
+      <c r="IJ3">
+        <v>2.7641680240631099</v>
+      </c>
+      <c r="IK3">
+        <v>2.76247239112854</v>
+      </c>
+      <c r="IL3">
+        <v>2.7847056388854901</v>
+      </c>
+      <c r="IM3">
+        <v>2.8112366199493399</v>
+      </c>
+      <c r="IN3">
+        <v>2.8074917793273899</v>
+      </c>
+      <c r="IO3">
+        <v>2.8424208164214999</v>
+      </c>
+      <c r="IP3">
+        <v>2.8408172130584699</v>
+      </c>
+      <c r="IQ3">
+        <v>2.8436863422393799</v>
+      </c>
+      <c r="IR3">
+        <v>2.8501162528991699</v>
+      </c>
+      <c r="IS3">
+        <v>2.8612575531005802</v>
+      </c>
+      <c r="IT3">
+        <v>2.8962337970733598</v>
+      </c>
+      <c r="IU3">
+        <v>2.8969655036926198</v>
+      </c>
+      <c r="IV3">
+        <v>2.8953664302825901</v>
+      </c>
+      <c r="IW3">
+        <v>2.9175012111663801</v>
+      </c>
+      <c r="IX3">
+        <v>2.9389631748199401</v>
+      </c>
+      <c r="IY3">
+        <v>2.9377634525299001</v>
+      </c>
+      <c r="IZ3">
+        <v>2.9282746315002401</v>
+      </c>
+      <c r="JA3">
+        <v>2.9511792659759499</v>
+      </c>
+      <c r="JB3">
+        <v>2.9480204582214302</v>
+      </c>
+      <c r="JC3">
+        <v>3.0070497989654501</v>
+      </c>
+      <c r="JD3">
+        <v>3.0138204097747798</v>
+      </c>
+      <c r="JE3">
+        <v>2.9894838333129798</v>
+      </c>
+      <c r="JF3">
+        <v>3.02909803390502</v>
+      </c>
+      <c r="JG3">
+        <v>3.0248031616210902</v>
+      </c>
+      <c r="JH3">
+        <v>3.03265929222106</v>
+      </c>
+      <c r="JI3">
+        <v>3.08452248573303</v>
+      </c>
+      <c r="JJ3">
+        <v>3.0570983886718701</v>
+      </c>
+      <c r="JK3">
+        <v>3.0458922386169398</v>
+      </c>
+      <c r="JL3">
+        <v>3.0759150981903001</v>
+      </c>
+      <c r="JM3">
+        <v>3.09552645683288</v>
+      </c>
+      <c r="JN3">
+        <v>3.1038286685943599</v>
+      </c>
+      <c r="JO3">
+        <v>3.11956763267517</v>
+      </c>
+      <c r="JP3">
+        <v>3.12256479263305</v>
+      </c>
+      <c r="JQ3">
+        <v>3.1461219787597599</v>
+      </c>
+      <c r="JR3">
+        <v>3.15376877784729</v>
+      </c>
+      <c r="JS3">
+        <v>3.1715521812438898</v>
+      </c>
+      <c r="JT3">
+        <v>3.1826424598693799</v>
+      </c>
+      <c r="JU3">
+        <v>3.1850898265838601</v>
+      </c>
+      <c r="JV3">
+        <v>3.1994297504425</v>
+      </c>
+      <c r="JW3">
+        <v>3.2132313251495299</v>
+      </c>
+      <c r="JX3">
+        <v>3.2460036277770898</v>
+      </c>
+      <c r="JY3">
+        <v>3.2332305908203098</v>
+      </c>
+      <c r="JZ3">
+        <v>3.2343623638153001</v>
+      </c>
+      <c r="KA3">
+        <v>3.26454281806945</v>
+      </c>
+      <c r="KB3">
+        <v>3.2591750621795601</v>
+      </c>
+      <c r="KC3">
+        <v>3.3148512840270898</v>
+      </c>
+      <c r="KD3">
+        <v>3.2799205780029199</v>
+      </c>
+      <c r="KE3">
+        <v>3.3021540641784601</v>
+      </c>
+      <c r="KF3">
+        <v>3.3290128707885698</v>
+      </c>
+      <c r="KG3">
+        <v>3.34052157402038</v>
+      </c>
+      <c r="KH3">
+        <v>3.3996813297271702</v>
+      </c>
+      <c r="KI3">
+        <v>3.3759570121765101</v>
+      </c>
+      <c r="KJ3">
+        <v>3.3708300590515101</v>
+      </c>
+      <c r="KK3">
+        <v>3.3944413661956698</v>
+      </c>
+      <c r="KL3">
+        <v>3.4244530200958199</v>
+      </c>
+      <c r="KM3">
+        <v>3.3954918384552002</v>
+      </c>
+      <c r="KN3">
+        <v>3.3783805370330802</v>
+      </c>
+      <c r="KO3">
+        <v>3.4114506244659402</v>
       </c>
     </row>
   </sheetData>
